--- a/src/main/webapp/schedules/Polio.xlsx
+++ b/src/main/webapp/schedules/Polio.xlsx
@@ -1,29 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TCH\TCHWorkspaces\iris006-ws\fv\schedules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\tch\forecaster\src\main\webapp\schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0201A305-A61D-492D-B361-E81E128E2F17}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="330" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Schedules" sheetId="1" r:id="rId1"/>
-    <sheet name="XML" sheetId="2" r:id="rId2"/>
+    <sheet name="Temp" sheetId="3" r:id="rId1"/>
+    <sheet name="Schedules" sheetId="1" r:id="rId2"/>
+    <sheet name="XML" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Schedules!$A$1:$K$176</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Schedules!$A$1:$K$176</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="230">
   <si>
     <t>Forecast Series Name</t>
   </si>
@@ -40,18 +50,12 @@
     <t>Vaccine</t>
   </si>
   <si>
-    <t>Trade Name(s)</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
     <t>IPV</t>
   </si>
   <si>
-    <t>DTaP-HepB-IPV</t>
-  </si>
-  <si>
     <t>OPV</t>
   </si>
   <si>
@@ -64,15 +68,6 @@
     <t>DTaP-IPV</t>
   </si>
   <si>
-    <t>Kinrix</t>
-  </si>
-  <si>
-    <t>DTaP-IPV-Hib-HepB</t>
-  </si>
-  <si>
-    <t>Pentavalente</t>
-  </si>
-  <si>
     <t>Schedule</t>
   </si>
   <si>
@@ -250,16 +245,484 @@
     <t>4 years -4 d</t>
   </si>
   <si>
-    <t>Hexavalente</t>
-  </si>
-  <si>
-    <t>147, 114, 115, 153, 116, 142, 227</t>
-  </si>
-  <si>
-    <t>DTaP/IPV/Hib (Non-US)</t>
-  </si>
-  <si>
-    <t>147, 114, 115, 153, 148, 116, 142, 227</t>
+    <t>TCH</t>
+  </si>
+  <si>
+    <t>CVX</t>
+  </si>
+  <si>
+    <t>CVX Label</t>
+  </si>
+  <si>
+    <t>DTaP</t>
+  </si>
+  <si>
+    <t>DTaP, 5 pertussis antigens</t>
+  </si>
+  <si>
+    <t>DTaP, unspecified formulation</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>DTP</t>
+  </si>
+  <si>
+    <t>DT (pediatric)</t>
+  </si>
+  <si>
+    <t>DTaP-Hib</t>
+  </si>
+  <si>
+    <t>DTaP-Hep B-IPV</t>
+  </si>
+  <si>
+    <t>DTP-Hib</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>Td (adult), adsorbed</t>
+  </si>
+  <si>
+    <t>Td (adult)</t>
+  </si>
+  <si>
+    <t>Td(adult) unspecified formulation</t>
+  </si>
+  <si>
+    <t>Tdap</t>
+  </si>
+  <si>
+    <t>Td (adult) preservative free</t>
+  </si>
+  <si>
+    <t>Hib, unspecified formulation</t>
+  </si>
+  <si>
+    <t>Hib-Hep B</t>
+  </si>
+  <si>
+    <t>Hep B, unspecified formulation</t>
+  </si>
+  <si>
+    <t>DTaP-IPV-HIB-HEP B, historical</t>
+  </si>
+  <si>
+    <t>DTaP,IPV,Hib,HepB</t>
+  </si>
+  <si>
+    <t>Hep A, pediatric, unspecified formulation</t>
+  </si>
+  <si>
+    <t>Hep A, unspecified formulation</t>
+  </si>
+  <si>
+    <t>Hep A-Hep B</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>polio, unspecified formulation</t>
+  </si>
+  <si>
+    <t>pneumococcal conjugate PCV 7</t>
+  </si>
+  <si>
+    <t>pneumococcal polysaccharide PPV23</t>
+  </si>
+  <si>
+    <t>pneumococcal, unspecified formulation</t>
+  </si>
+  <si>
+    <t>Pneumococcal Conjugate, unspecified formulation</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>MMR</t>
+  </si>
+  <si>
+    <t>MMRV</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>M/R</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>measles</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>mumps</t>
+  </si>
+  <si>
+    <t>meningococcal B, recombinant</t>
+  </si>
+  <si>
+    <t>meningococcal B, OMV</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>rubella</t>
+  </si>
+  <si>
+    <t>rubella/mumps</t>
+  </si>
+  <si>
+    <t>varicella</t>
+  </si>
+  <si>
+    <t>influenza, whole</t>
+  </si>
+  <si>
+    <t>influenza, unspecified formulation</t>
+  </si>
+  <si>
+    <t>influenza, recombinant, injectable, preservative free</t>
+  </si>
+  <si>
+    <t>Influenza, injectable,quadrivalent, preservative free, pediatric</t>
+  </si>
+  <si>
+    <t>influenza, live, intranasal</t>
+  </si>
+  <si>
+    <t>influenza, split (incl. purified surface antigen)</t>
+  </si>
+  <si>
+    <t>meningococcal MPSV4</t>
+  </si>
+  <si>
+    <t>meningococcal MCV4P</t>
+  </si>
+  <si>
+    <t>meningococcal, unspecified formulation</t>
+  </si>
+  <si>
+    <t>meningococcal MCV4, unspecified formulation</t>
+  </si>
+  <si>
+    <t>Influenza, high dose seasonal</t>
+  </si>
+  <si>
+    <t>Novel Influenza-H1N1-09, all formulations</t>
+  </si>
+  <si>
+    <t>Novel Influenza-H1N1-09, nasal</t>
+  </si>
+  <si>
+    <t>Novel influenza-H1N1-09, preservative-free</t>
+  </si>
+  <si>
+    <t>Novel influenza-H1N1-09</t>
+  </si>
+  <si>
+    <t>meningococcal C conjugate</t>
+  </si>
+  <si>
+    <t>Meningococcal MCV4O</t>
+  </si>
+  <si>
+    <t>Influenza, seasonal, injectable, preservative free</t>
+  </si>
+  <si>
+    <t>Influenza, seasonal, injectable</t>
+  </si>
+  <si>
+    <t>influenza, intradermal, quadrivalent, preservative free</t>
+  </si>
+  <si>
+    <t>influenza, seasonal, intradermal, preservative free</t>
+  </si>
+  <si>
+    <t>influenza, live, intranasal, quadrivalent</t>
+  </si>
+  <si>
+    <t>influenza nasal, unspecified formulation</t>
+  </si>
+  <si>
+    <t>influenza, injectable, quadrivalent, preservative free</t>
+  </si>
+  <si>
+    <t>influenza, injectable, quadrivalent</t>
+  </si>
+  <si>
+    <t>rotavirus, monovalent</t>
+  </si>
+  <si>
+    <t>rotavirus, pentavalent</t>
+  </si>
+  <si>
+    <t>rotavirus, tetravalent</t>
+  </si>
+  <si>
+    <t>Lyme disease</t>
+  </si>
+  <si>
+    <t>rabies, intramuscular injection</t>
+  </si>
+  <si>
+    <t>rabies, intradermal injection</t>
+  </si>
+  <si>
+    <t>rabies, unspecified formulation</t>
+  </si>
+  <si>
+    <t>BCG</t>
+  </si>
+  <si>
+    <t>rotavirus, unspecified formulation</t>
+  </si>
+  <si>
+    <t>Meningococcal C/Y-HIB PRP</t>
+  </si>
+  <si>
+    <t>HPV9</t>
+  </si>
+  <si>
+    <t>HPV, quadrivalent</t>
+  </si>
+  <si>
+    <t>HPV, bivalent</t>
+  </si>
+  <si>
+    <t>HPV, unspecified formulation</t>
+  </si>
+  <si>
+    <t>adenovirus, type 4</t>
+  </si>
+  <si>
+    <t>adenovirus, type 7</t>
+  </si>
+  <si>
+    <t>adenovirus, unspecified formulation</t>
+  </si>
+  <si>
+    <t>anthrax</t>
+  </si>
+  <si>
+    <t>botulinum antitoxin</t>
+  </si>
+  <si>
+    <t>cholera</t>
+  </si>
+  <si>
+    <t>CMVIG</t>
+  </si>
+  <si>
+    <t>dengue fever</t>
+  </si>
+  <si>
+    <t>diphtheria antitoxin</t>
+  </si>
+  <si>
+    <t>DTP-Hib-Hep B</t>
+  </si>
+  <si>
+    <t>hantavirus</t>
+  </si>
+  <si>
+    <t>Hep A, adult</t>
+  </si>
+  <si>
+    <t>Hep A, ped/adol, 2 dose</t>
+  </si>
+  <si>
+    <t>Hep A, ped/adol, 3 dose</t>
+  </si>
+  <si>
+    <t>HBIG</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>Hep B, adolescent or pediatric</t>
+  </si>
+  <si>
+    <t>Hep B, adolescent/high risk infant</t>
+  </si>
+  <si>
+    <t>Hep B, adult</t>
+  </si>
+  <si>
+    <t>Hep B, dialysis</t>
+  </si>
+  <si>
+    <t>Hep E</t>
+  </si>
+  <si>
+    <t>herpes simplex 2</t>
+  </si>
+  <si>
+    <t>Hib (PRP-D)</t>
+  </si>
+  <si>
+    <t>Hib (HbOC)</t>
+  </si>
+  <si>
+    <t>Hib (PRP-T)</t>
+  </si>
+  <si>
+    <t>Hib (PRP-OMP)</t>
+  </si>
+  <si>
+    <t>IG</t>
+  </si>
+  <si>
+    <t>IGIV</t>
+  </si>
+  <si>
+    <t>IG, unspecified formulation</t>
+  </si>
+  <si>
+    <t>Japanese encephalitis SC</t>
+  </si>
+  <si>
+    <t>Japanese Encephalitis IM</t>
+  </si>
+  <si>
+    <t>leishmaniasis</t>
+  </si>
+  <si>
+    <t>leprosy</t>
+  </si>
+  <si>
+    <t>malaria</t>
+  </si>
+  <si>
+    <t>melanoma</t>
+  </si>
+  <si>
+    <t>parainfluenza-3</t>
+  </si>
+  <si>
+    <t>pertussis</t>
+  </si>
+  <si>
+    <t>plague</t>
+  </si>
+  <si>
+    <t>Q fever</t>
+  </si>
+  <si>
+    <t>rheumatic fever</t>
+  </si>
+  <si>
+    <t>Rift Valley fever</t>
+  </si>
+  <si>
+    <t>RIG</t>
+  </si>
+  <si>
+    <t>RSV-IGIV</t>
+  </si>
+  <si>
+    <t>RSV-MAb</t>
+  </si>
+  <si>
+    <t>vaccinia (smallpox)</t>
+  </si>
+  <si>
+    <t>Staphylococcus bacterio lysate</t>
+  </si>
+  <si>
+    <t>tetanus toxoid, adsorbed</t>
+  </si>
+  <si>
+    <t>tick-borne encephalitis</t>
+  </si>
+  <si>
+    <t>TIG</t>
+  </si>
+  <si>
+    <t>TST-OT tine test</t>
+  </si>
+  <si>
+    <t>TST-PPD intradermal</t>
+  </si>
+  <si>
+    <t>TST-PPD tine test</t>
+  </si>
+  <si>
+    <t>TST, unspecified formulation</t>
+  </si>
+  <si>
+    <t>tularemia vaccine</t>
+  </si>
+  <si>
+    <t>typhoid, oral</t>
+  </si>
+  <si>
+    <t>typhoid, parenteral</t>
+  </si>
+  <si>
+    <t>typhoid, parenteral, AKD (U.S. military)</t>
+  </si>
+  <si>
+    <t>typhoid, ViCPs</t>
+  </si>
+  <si>
+    <t>typhoid, unspecified formulation</t>
+  </si>
+  <si>
+    <t>vaccinia immune globulin</t>
+  </si>
+  <si>
+    <t>VEE, inactivated</t>
+  </si>
+  <si>
+    <t>VEE, live</t>
+  </si>
+  <si>
+    <t>VEE, unspecified formulation</t>
+  </si>
+  <si>
+    <t>VZIG</t>
+  </si>
+  <si>
+    <t>yellow fever</t>
+  </si>
+  <si>
+    <t>zoster</t>
+  </si>
+  <si>
+    <t>typhus, historical</t>
+  </si>
+  <si>
+    <t>Pneumococcal conjugate PCV 13</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>DTAP/IPV/HIB - non-US</t>
+  </si>
+  <si>
+    <t>110, 120, 170, 10, 89, 130, 132</t>
+  </si>
+  <si>
+    <t>110, 120, 170, 10, 02, 89, 130, 132</t>
+  </si>
+  <si>
+    <t>CVX Code</t>
   </si>
 </sst>
 </file>
@@ -305,7 +768,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -346,6 +809,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="44"/>
         <bgColor indexed="31"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="26"/>
       </patternFill>
     </fill>
   </fills>
@@ -426,7 +895,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -454,9 +923,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -478,6 +944,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -967,10 +1448,1682 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E6365F6-A5CA-4164-A329-CA659E523532}">
+  <dimension ref="A1:C150"/>
+  <sheetViews>
+    <sheetView topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="C154" sqref="C154"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>110</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>110</v>
+      </c>
+      <c r="B3">
+        <v>106</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>110</v>
+      </c>
+      <c r="B4">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>111</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>112</v>
+      </c>
+      <c r="B6">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>113</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>114</v>
+      </c>
+      <c r="B8">
+        <v>110</v>
+      </c>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>115</v>
+      </c>
+      <c r="B9">
+        <v>120</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>116</v>
+      </c>
+      <c r="B10">
+        <v>130</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>121</v>
+      </c>
+      <c r="B11">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>122</v>
+      </c>
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>122</v>
+      </c>
+      <c r="B13">
+        <v>138</v>
+      </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>122</v>
+      </c>
+      <c r="B14">
+        <v>139</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>123</v>
+      </c>
+      <c r="B15">
+        <v>115</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>124</v>
+      </c>
+      <c r="B16">
+        <v>113</v>
+      </c>
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>128</v>
+      </c>
+      <c r="B17">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>136</v>
+      </c>
+      <c r="B18">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>137</v>
+      </c>
+      <c r="B19">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>142</v>
+      </c>
+      <c r="B20">
+        <v>132</v>
+      </c>
+      <c r="C20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>142</v>
+      </c>
+      <c r="B21">
+        <v>146</v>
+      </c>
+      <c r="C21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>145</v>
+      </c>
+      <c r="B22">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>145</v>
+      </c>
+      <c r="B23">
+        <v>85</v>
+      </c>
+      <c r="C23" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>146</v>
+      </c>
+      <c r="B24">
+        <v>104</v>
+      </c>
+      <c r="C24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>147</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>148</v>
+      </c>
+      <c r="B26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>153</v>
+      </c>
+      <c r="B27">
+        <v>89</v>
+      </c>
+      <c r="C27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>154</v>
+      </c>
+      <c r="B28">
+        <v>100</v>
+      </c>
+      <c r="C28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>155</v>
+      </c>
+      <c r="B29">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>156</v>
+      </c>
+      <c r="B30">
+        <v>109</v>
+      </c>
+      <c r="C30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>156</v>
+      </c>
+      <c r="B31">
+        <v>152</v>
+      </c>
+      <c r="C31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>158</v>
+      </c>
+      <c r="B32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>159</v>
+      </c>
+      <c r="B33">
+        <v>94</v>
+      </c>
+      <c r="C33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>160</v>
+      </c>
+      <c r="B34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>161</v>
+      </c>
+      <c r="B35" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>162</v>
+      </c>
+      <c r="B36" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>162</v>
+      </c>
+      <c r="B37">
+        <v>215</v>
+      </c>
+      <c r="C37" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>163</v>
+      </c>
+      <c r="B38">
+        <v>216</v>
+      </c>
+      <c r="C38" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>171</v>
+      </c>
+      <c r="B39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>175</v>
+      </c>
+      <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>178</v>
+      </c>
+      <c r="B41">
+        <v>21</v>
+      </c>
+      <c r="C41" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>179</v>
+      </c>
+      <c r="B42">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>179</v>
+      </c>
+      <c r="B43">
+        <v>88</v>
+      </c>
+      <c r="C43" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>179</v>
+      </c>
+      <c r="B44">
+        <v>155</v>
+      </c>
+      <c r="C44" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>179</v>
+      </c>
+      <c r="B45">
+        <v>161</v>
+      </c>
+      <c r="C45" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>180</v>
+      </c>
+      <c r="B46">
+        <v>111</v>
+      </c>
+      <c r="C46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>181</v>
+      </c>
+      <c r="B47">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>182</v>
+      </c>
+      <c r="B48">
+        <v>32</v>
+      </c>
+      <c r="C48" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>183</v>
+      </c>
+      <c r="B49">
+        <v>114</v>
+      </c>
+      <c r="C49" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>184</v>
+      </c>
+      <c r="B50">
+        <v>108</v>
+      </c>
+      <c r="C50" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>184</v>
+      </c>
+      <c r="B51">
+        <v>147</v>
+      </c>
+      <c r="C51" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>185</v>
+      </c>
+      <c r="B52">
+        <v>135</v>
+      </c>
+      <c r="C52" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>186</v>
+      </c>
+      <c r="B53">
+        <v>128</v>
+      </c>
+      <c r="C53" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>187</v>
+      </c>
+      <c r="B54">
+        <v>125</v>
+      </c>
+      <c r="C54" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>188</v>
+      </c>
+      <c r="B55">
+        <v>126</v>
+      </c>
+      <c r="C55" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>189</v>
+      </c>
+      <c r="B56">
+        <v>127</v>
+      </c>
+      <c r="C56" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>197</v>
+      </c>
+      <c r="B57">
+        <v>103</v>
+      </c>
+      <c r="C57" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>198</v>
+      </c>
+      <c r="B58">
+        <v>136</v>
+      </c>
+      <c r="C58" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>200</v>
+      </c>
+      <c r="B59">
+        <v>140</v>
+      </c>
+      <c r="C59" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>201</v>
+      </c>
+      <c r="B60">
+        <v>141</v>
+      </c>
+      <c r="C60" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>202</v>
+      </c>
+      <c r="B61">
+        <v>166</v>
+      </c>
+      <c r="C61" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>202</v>
+      </c>
+      <c r="B62">
+        <v>144</v>
+      </c>
+      <c r="C62" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>203</v>
+      </c>
+      <c r="B63">
+        <v>149</v>
+      </c>
+      <c r="C63" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>203</v>
+      </c>
+      <c r="B64">
+        <v>151</v>
+      </c>
+      <c r="C64" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>204</v>
+      </c>
+      <c r="B65">
+        <v>150</v>
+      </c>
+      <c r="C65" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>204</v>
+      </c>
+      <c r="B66">
+        <v>158</v>
+      </c>
+      <c r="C66" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>206</v>
+      </c>
+      <c r="B67">
+        <v>119</v>
+      </c>
+      <c r="C67" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>207</v>
+      </c>
+      <c r="B68">
+        <v>116</v>
+      </c>
+      <c r="C68" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>208</v>
+      </c>
+      <c r="B69">
+        <v>74</v>
+      </c>
+      <c r="C69" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>209</v>
+      </c>
+      <c r="B70">
+        <v>66</v>
+      </c>
+      <c r="C70" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>210</v>
+      </c>
+      <c r="B71">
+        <v>18</v>
+      </c>
+      <c r="C71" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>210</v>
+      </c>
+      <c r="B72">
+        <v>40</v>
+      </c>
+      <c r="C72" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>210</v>
+      </c>
+      <c r="B73">
+        <v>90</v>
+      </c>
+      <c r="C73" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>211</v>
+      </c>
+      <c r="B74">
+        <v>19</v>
+      </c>
+      <c r="C74" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>212</v>
+      </c>
+      <c r="B75">
+        <v>122</v>
+      </c>
+      <c r="C75" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>213</v>
+      </c>
+      <c r="B76">
+        <v>148</v>
+      </c>
+      <c r="C76" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>214</v>
+      </c>
+      <c r="B77">
+        <v>165</v>
+      </c>
+      <c r="C77" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>215</v>
+      </c>
+      <c r="B78">
+        <v>162</v>
+      </c>
+      <c r="C78" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>216</v>
+      </c>
+      <c r="B79">
+        <v>163</v>
+      </c>
+      <c r="C79" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>390</v>
+      </c>
+      <c r="B80">
+        <v>62</v>
+      </c>
+      <c r="C80" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>391</v>
+      </c>
+      <c r="B81">
+        <v>118</v>
+      </c>
+      <c r="C81" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>391</v>
+      </c>
+      <c r="B82">
+        <v>137</v>
+      </c>
+      <c r="C82" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>1000</v>
+      </c>
+      <c r="B83">
+        <v>54</v>
+      </c>
+      <c r="C83" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>1010</v>
+      </c>
+      <c r="B84">
+        <v>55</v>
+      </c>
+      <c r="C84" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>1020</v>
+      </c>
+      <c r="B85">
+        <v>82</v>
+      </c>
+      <c r="C85" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>1030</v>
+      </c>
+      <c r="B86">
+        <v>24</v>
+      </c>
+      <c r="C86" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>1050</v>
+      </c>
+      <c r="B87">
+        <v>27</v>
+      </c>
+      <c r="C87" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>1060</v>
+      </c>
+      <c r="B88">
+        <v>26</v>
+      </c>
+      <c r="C88" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>1070</v>
+      </c>
+      <c r="B89">
+        <v>29</v>
+      </c>
+      <c r="C89" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>1080</v>
+      </c>
+      <c r="B90">
+        <v>56</v>
+      </c>
+      <c r="C90" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>1090</v>
+      </c>
+      <c r="B91">
+        <v>12</v>
+      </c>
+      <c r="C91" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>1150</v>
+      </c>
+      <c r="B92">
+        <v>102</v>
+      </c>
+      <c r="C92" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>1160</v>
+      </c>
+      <c r="B93">
+        <v>57</v>
+      </c>
+      <c r="C93" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>1170</v>
+      </c>
+      <c r="B94">
+        <v>52</v>
+      </c>
+      <c r="C94" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>1180</v>
+      </c>
+      <c r="B95">
+        <v>83</v>
+      </c>
+      <c r="C95" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>1190</v>
+      </c>
+      <c r="B96">
+        <v>84</v>
+      </c>
+      <c r="C96" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>1230</v>
+      </c>
+      <c r="B97">
+        <v>30</v>
+      </c>
+      <c r="C97" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>1240</v>
+      </c>
+      <c r="B98" t="s">
+        <v>171</v>
+      </c>
+      <c r="C98" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>1250</v>
+      </c>
+      <c r="B99">
+        <v>42</v>
+      </c>
+      <c r="C99" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>1260</v>
+      </c>
+      <c r="B100">
+        <v>43</v>
+      </c>
+      <c r="C100" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>1270</v>
+      </c>
+      <c r="B101">
+        <v>44</v>
+      </c>
+      <c r="C101" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>1300</v>
+      </c>
+      <c r="B102">
+        <v>59</v>
+      </c>
+      <c r="C102" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>1310</v>
+      </c>
+      <c r="B103">
+        <v>60</v>
+      </c>
+      <c r="C103" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>1320</v>
+      </c>
+      <c r="B104">
+        <v>46</v>
+      </c>
+      <c r="C104" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>1330</v>
+      </c>
+      <c r="B105">
+        <v>47</v>
+      </c>
+      <c r="C105" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>1340</v>
+      </c>
+      <c r="B106">
+        <v>48</v>
+      </c>
+      <c r="C106" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>1350</v>
+      </c>
+      <c r="B107">
+        <v>49</v>
+      </c>
+      <c r="C107" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>1400</v>
+      </c>
+      <c r="B108">
+        <v>86</v>
+      </c>
+      <c r="C108" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>1410</v>
+      </c>
+      <c r="B109">
+        <v>87</v>
+      </c>
+      <c r="C109" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>1420</v>
+      </c>
+      <c r="B110">
+        <v>14</v>
+      </c>
+      <c r="C110" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>1490</v>
+      </c>
+      <c r="B111">
+        <v>39</v>
+      </c>
+      <c r="C111" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>1491</v>
+      </c>
+      <c r="B112">
+        <v>134</v>
+      </c>
+      <c r="C112" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>1510</v>
+      </c>
+      <c r="B113">
+        <v>64</v>
+      </c>
+      <c r="C113" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>1520</v>
+      </c>
+      <c r="B114">
+        <v>65</v>
+      </c>
+      <c r="C114" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>1570</v>
+      </c>
+      <c r="B115">
+        <v>67</v>
+      </c>
+      <c r="C115" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>1590</v>
+      </c>
+      <c r="B116">
+        <v>68</v>
+      </c>
+      <c r="C116" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>1630</v>
+      </c>
+      <c r="B117">
+        <v>69</v>
+      </c>
+      <c r="C117" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>1640</v>
+      </c>
+      <c r="B118">
+        <v>11</v>
+      </c>
+      <c r="C118" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>1650</v>
+      </c>
+      <c r="B119">
+        <v>23</v>
+      </c>
+      <c r="C119" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>1680</v>
+      </c>
+      <c r="B120">
+        <v>70</v>
+      </c>
+      <c r="C120" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>1720</v>
+      </c>
+      <c r="B121">
+        <v>72</v>
+      </c>
+      <c r="C121" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>1730</v>
+      </c>
+      <c r="B122">
+        <v>73</v>
+      </c>
+      <c r="C122" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>1740</v>
+      </c>
+      <c r="B123">
+        <v>34</v>
+      </c>
+      <c r="C123" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>1760</v>
+      </c>
+      <c r="B124">
+        <v>71</v>
+      </c>
+      <c r="C124" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>1770</v>
+      </c>
+      <c r="B125">
+        <v>93</v>
+      </c>
+      <c r="C125" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>1800</v>
+      </c>
+      <c r="B126">
+        <v>75</v>
+      </c>
+      <c r="C126" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>1810</v>
+      </c>
+      <c r="B127">
+        <v>76</v>
+      </c>
+      <c r="C127" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>1830</v>
+      </c>
+      <c r="B128">
+        <v>35</v>
+      </c>
+      <c r="C128" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>1840</v>
+      </c>
+      <c r="B129">
+        <v>77</v>
+      </c>
+      <c r="C129" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>1850</v>
+      </c>
+      <c r="B130">
+        <v>13</v>
+      </c>
+      <c r="C130" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>1860</v>
+      </c>
+      <c r="B131">
+        <v>95</v>
+      </c>
+      <c r="C131" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>1870</v>
+      </c>
+      <c r="B132">
+        <v>96</v>
+      </c>
+      <c r="C132" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>1880</v>
+      </c>
+      <c r="B133">
+        <v>97</v>
+      </c>
+      <c r="C133" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>1890</v>
+      </c>
+      <c r="B134">
+        <v>98</v>
+      </c>
+      <c r="C134" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>1900</v>
+      </c>
+      <c r="B135">
+        <v>78</v>
+      </c>
+      <c r="C135" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>1910</v>
+      </c>
+      <c r="B136">
+        <v>25</v>
+      </c>
+      <c r="C136" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>1920</v>
+      </c>
+      <c r="B137">
+        <v>41</v>
+      </c>
+      <c r="C137" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>1930</v>
+      </c>
+      <c r="B138">
+        <v>53</v>
+      </c>
+      <c r="C138" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>1940</v>
+      </c>
+      <c r="B139">
+        <v>101</v>
+      </c>
+      <c r="C139" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>1950</v>
+      </c>
+      <c r="B140">
+        <v>91</v>
+      </c>
+      <c r="C140" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>1960</v>
+      </c>
+      <c r="B141">
+        <v>79</v>
+      </c>
+      <c r="C141" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>1980</v>
+      </c>
+      <c r="B142">
+        <v>81</v>
+      </c>
+      <c r="C142" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>1990</v>
+      </c>
+      <c r="B143">
+        <v>80</v>
+      </c>
+      <c r="C143" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>2000</v>
+      </c>
+      <c r="B144">
+        <v>92</v>
+      </c>
+      <c r="C144" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>2010</v>
+      </c>
+      <c r="B145">
+        <v>36</v>
+      </c>
+      <c r="C145" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>2020</v>
+      </c>
+      <c r="B146">
+        <v>37</v>
+      </c>
+      <c r="C146" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>2110</v>
+      </c>
+      <c r="B147">
+        <v>121</v>
+      </c>
+      <c r="C147" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>3141</v>
+      </c>
+      <c r="B148">
+        <v>131</v>
+      </c>
+      <c r="C148" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>3143</v>
+      </c>
+      <c r="B149">
+        <v>133</v>
+      </c>
+      <c r="C149" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>9999</v>
+      </c>
+      <c r="B150">
+        <v>999</v>
+      </c>
+      <c r="C150" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1001,13 +3154,13 @@
       <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
@@ -1020,1491 +3173,1483 @@
       <c r="F3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="8" t="s">
-        <v>5</v>
-      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
       <c r="I3" s="9"/>
       <c r="J3" s="7" t="s">
-        <v>6</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>76</v>
+        <v>227</v>
       </c>
       <c r="D4" s="12"/>
       <c r="F4" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="11"/>
+        <v>80</v>
+      </c>
+      <c r="G4" s="24"/>
+      <c r="H4" s="23"/>
       <c r="I4" s="12"/>
-      <c r="J4" s="10">
-        <v>114</v>
+      <c r="J4" s="26">
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="11">
-        <v>148</v>
+        <v>7</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>96</v>
       </c>
       <c r="D5" s="12"/>
       <c r="F5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="11"/>
+        <v>8</v>
+      </c>
+      <c r="G5" s="24"/>
+      <c r="H5" s="23"/>
       <c r="I5" s="12"/>
-      <c r="J5" s="10">
-        <v>115</v>
+      <c r="J5" s="26">
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>78</v>
+        <v>228</v>
       </c>
       <c r="D6" s="12"/>
       <c r="F6" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="11" t="s">
-        <v>15</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="G6" s="24"/>
+      <c r="H6" s="23"/>
       <c r="I6" s="12"/>
-      <c r="J6" s="10">
-        <v>227</v>
+      <c r="J6" s="26" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C7" s="11">
         <v>-4</v>
       </c>
       <c r="D7" s="12"/>
       <c r="F7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="11"/>
+        <v>6</v>
+      </c>
+      <c r="G7" s="24"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="12"/>
-      <c r="J7" s="10">
-        <v>147</v>
+      <c r="J7" s="26">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="F8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="11"/>
+        <v>7</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="12"/>
-      <c r="J8" s="10">
-        <v>148</v>
+      <c r="J8" s="26" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+      <c r="B9" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
       <c r="F9" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="11"/>
+        <v>97</v>
+      </c>
+      <c r="G9" s="24"/>
+      <c r="H9" s="23"/>
       <c r="I9" s="12"/>
-      <c r="J9" s="10">
-        <v>153</v>
+      <c r="J9" s="26">
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="11" t="s">
-        <v>13</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G10" s="24"/>
+      <c r="H10" s="23"/>
       <c r="I10" s="12"/>
-      <c r="J10" s="10">
-        <v>116</v>
+      <c r="J10" s="26">
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D11" s="10">
         <v>-4</v>
       </c>
       <c r="F11" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="24"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="26">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+    </row>
+    <row r="18" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+    </row>
+    <row r="21" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+    </row>
+    <row r="22" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+    </row>
+    <row r="23" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+    </row>
+    <row r="24" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+    </row>
+    <row r="25" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+    </row>
+    <row r="26" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+    </row>
+    <row r="27" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+    </row>
+    <row r="28" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+    </row>
+    <row r="29" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+    </row>
+    <row r="30" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+    </row>
+    <row r="31" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+    </row>
+    <row r="32" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+    </row>
+    <row r="33" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+    </row>
+    <row r="35" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+    </row>
+    <row r="36" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+    </row>
+    <row r="37" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+    </row>
+    <row r="38" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+    </row>
+    <row r="39" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+    </row>
+    <row r="40" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+    </row>
+    <row r="41" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+    </row>
+    <row r="42" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+    </row>
+    <row r="43" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+    </row>
+    <row r="44" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+    </row>
+    <row r="45" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+    </row>
+    <row r="46" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+    </row>
+    <row r="47" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+    </row>
+    <row r="48" spans="8:9" x14ac:dyDescent="0.2">
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B54" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="10">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-    </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-    </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-    </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-    </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-    </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-    </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-    </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-    </row>
-    <row r="24" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-    </row>
-    <row r="25" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-    </row>
-    <row r="26" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-    </row>
-    <row r="27" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-    </row>
-    <row r="28" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-    </row>
-    <row r="29" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-    </row>
-    <row r="30" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-    </row>
-    <row r="31" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-    </row>
-    <row r="32" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-    </row>
-    <row r="33" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-    </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-    </row>
-    <row r="35" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-    </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-    </row>
-    <row r="37" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-    </row>
-    <row r="38" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-    </row>
-    <row r="39" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-    </row>
-    <row r="40" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-    </row>
-    <row r="41" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-    </row>
-    <row r="42" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-    </row>
-    <row r="43" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-    </row>
-    <row r="44" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-    </row>
-    <row r="45" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-    </row>
-    <row r="46" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-    </row>
-    <row r="47" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-    </row>
-    <row r="48" spans="8:9" x14ac:dyDescent="0.2">
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B54" s="15" t="s">
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B55" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C55" s="16">
+        <v>1</v>
+      </c>
+      <c r="D55" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D54" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" s="16" t="s">
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B56" s="21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B55" s="17" t="s">
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B57" s="17"/>
+      <c r="C57" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C55" s="17">
-        <v>1</v>
-      </c>
-      <c r="D55" s="17" t="s">
+      <c r="E57" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B56" s="22" t="s">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B58" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="10" t="s">
         <v>24</v>
-      </c>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B57" s="18"/>
-      <c r="C57" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B58" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>29</v>
       </c>
       <c r="D58" s="10"/>
       <c r="E58" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B59" s="19" t="s">
-        <v>33</v>
+      <c r="B59" s="18" t="s">
+        <v>28</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D59" s="10"/>
       <c r="E59" s="10"/>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B60" s="19" t="s">
-        <v>34</v>
+      <c r="B60" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D60" s="10"/>
       <c r="E60" s="10"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B61" s="19" t="s">
-        <v>35</v>
+      <c r="B61" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D61" s="10"/>
       <c r="E61" s="10"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B62" s="19" t="s">
-        <v>38</v>
+      <c r="B62" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B63" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C63" s="20"/>
+      <c r="B63" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C63" s="19"/>
       <c r="D63" s="10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E63" s="10"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B64" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C64" s="20"/>
+      <c r="B64" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64" s="19"/>
       <c r="D64" s="10"/>
       <c r="E64" s="10"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B65" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
+      <c r="B65" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B66" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B67" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D67" s="10"/>
-      <c r="E67" s="21"/>
+      <c r="E67" s="20"/>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B68" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D68" s="10"/>
-      <c r="E68" s="21" t="s">
-        <v>65</v>
+      <c r="E68" s="20" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B69" s="19" t="s">
-        <v>47</v>
+      <c r="B69" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="C69" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B70" s="19" t="s">
-        <v>48</v>
+      <c r="B70" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="C70" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B72" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16" t="s">
+      <c r="B72" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B73" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B74" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" s="21"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B75" s="17"/>
+      <c r="C75" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B73" s="17" t="s">
+      <c r="D75" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B76" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C73" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B74" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B75" s="18"/>
-      <c r="C75" s="7" t="s">
+      <c r="C76" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E76" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B76" s="19" t="s">
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B77" s="18" t="s">
         <v>28</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E76" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B77" s="19" t="s">
-        <v>33</v>
       </c>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
       <c r="E77" s="10"/>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B78" s="19" t="s">
-        <v>34</v>
+      <c r="B78" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D78" s="10"/>
       <c r="E78" s="10"/>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B79" s="19" t="s">
-        <v>35</v>
+      <c r="B79" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D79" s="10"/>
       <c r="E79" s="10"/>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B80" s="19" t="s">
-        <v>38</v>
+      <c r="B80" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D80" s="10"/>
       <c r="E80" s="10"/>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B81" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C81" s="20"/>
+      <c r="B81" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C81" s="19"/>
       <c r="D81" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B82" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C82" s="20"/>
+      <c r="B82" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C82" s="19"/>
       <c r="D82" s="10"/>
       <c r="E82" s="10"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B83" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
+      <c r="B83" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E85" s="21"/>
+        <v>49</v>
+      </c>
+      <c r="E85" s="20"/>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D86" s="10"/>
-      <c r="E86" s="21"/>
+      <c r="E86" s="20"/>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D87" s="10"/>
-      <c r="E87" s="21" t="s">
-        <v>64</v>
+      <c r="E87" s="20" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B88" s="19" t="s">
-        <v>47</v>
+      <c r="B88" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="C88" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B89" s="19" t="s">
-        <v>48</v>
+      <c r="B89" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="C89" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B91" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D91" s="16"/>
-      <c r="E91" s="16" t="s">
-        <v>49</v>
+      <c r="B91" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B92" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C92" s="17">
+      <c r="B92" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C92" s="16">
         <v>3</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B93" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="22"/>
+      <c r="B93" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B94" s="18"/>
+      <c r="B94" s="17"/>
       <c r="C94" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B95" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E95" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D94" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B95" s="19" t="s">
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B96" s="18" t="s">
         <v>28</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D95" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E95" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B96" s="19" t="s">
-        <v>33</v>
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="10"/>
       <c r="E96" s="10"/>
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B97" s="19" t="s">
-        <v>34</v>
+      <c r="B97" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D97" s="10"/>
       <c r="E97" s="10"/>
     </row>
     <row r="98" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B98" s="19" t="s">
-        <v>35</v>
+      <c r="B98" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D98" s="10"/>
       <c r="E98" s="10"/>
     </row>
     <row r="99" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B99" s="19" t="s">
-        <v>38</v>
+      <c r="B99" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D99" s="10"/>
       <c r="E99" s="10"/>
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B100" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C100" s="20"/>
+      <c r="B100" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C100" s="19"/>
       <c r="D100" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B101" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C101" s="20"/>
+      <c r="B101" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C101" s="19"/>
       <c r="D101" s="10"/>
       <c r="E101" s="10"/>
     </row>
     <row r="102" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B102" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C102" s="22"/>
-      <c r="D102" s="22"/>
+      <c r="B102" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C102" s="21"/>
+      <c r="D102" s="21"/>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B103" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B104" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C104" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="C104" s="10" t="s">
-        <v>71</v>
       </c>
       <c r="D104" s="10"/>
       <c r="E104" s="10"/>
-      <c r="F104" s="21" t="s">
-        <v>73</v>
+      <c r="F104" s="20" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="105" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B105" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D105" s="10"/>
-      <c r="E105" s="21"/>
-      <c r="F105" s="21"/>
+      <c r="E105" s="20"/>
+      <c r="F105" s="20"/>
     </row>
     <row r="106" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B106" s="19" t="s">
-        <v>47</v>
+      <c r="B106" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="C106" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="107" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B107" s="19" t="s">
-        <v>48</v>
+      <c r="B107" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="C107" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B109" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C109" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D109" s="16"/>
-      <c r="E109" s="16" t="s">
+      <c r="B109" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B110" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B111" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C111" s="21"/>
+      <c r="D111" s="21"/>
+      <c r="E111" s="21"/>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B112" s="17"/>
+      <c r="C112" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E112" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B113" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D113" s="10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B110" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C110" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B111" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C111" s="22"/>
-      <c r="D111" s="22"/>
-      <c r="E111" s="22"/>
-    </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B112" s="18"/>
-      <c r="C112" s="7" t="s">
+      <c r="E113" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D112" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E112" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B113" s="19" t="s">
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B114" s="18" t="s">
         <v>28</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D113" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E113" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B114" s="19" t="s">
-        <v>33</v>
       </c>
       <c r="C114" s="10"/>
       <c r="D114" s="10"/>
       <c r="E114" s="10"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B115" s="19" t="s">
-        <v>34</v>
+      <c r="B115" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D115" s="10"/>
       <c r="E115" s="10"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B116" s="19" t="s">
-        <v>35</v>
+      <c r="B116" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D116" s="10"/>
       <c r="E116" s="10"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B117" s="19" t="s">
-        <v>38</v>
+      <c r="B117" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D117" s="10"/>
       <c r="E117" s="10"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B118" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C118" s="20"/>
+      <c r="B118" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C118" s="19"/>
       <c r="D118" s="10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B119" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C119" s="20"/>
+      <c r="B119" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C119" s="19"/>
       <c r="D119" s="10"/>
       <c r="E119" s="10"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B120" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C120" s="22"/>
-      <c r="D120" s="22"/>
+      <c r="B120" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C120" s="21"/>
+      <c r="D120" s="21"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B121" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B122" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D122" s="10"/>
-      <c r="E122" s="21"/>
+      <c r="E122" s="20"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B123" s="19" t="s">
-        <v>47</v>
+      <c r="B123" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="C123" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B124" s="19" t="s">
-        <v>48</v>
+      <c r="B124" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="C124" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B126" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C126" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D126" s="16"/>
-      <c r="E126" s="16" t="s">
-        <v>60</v>
+      <c r="B126" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126" s="15"/>
+      <c r="E126" s="15" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B127" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C127" s="17">
+      <c r="B127" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C127" s="16">
         <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="16"/>
-      <c r="B128" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C128" s="22"/>
-      <c r="D128" s="22"/>
-      <c r="E128" s="22"/>
+      <c r="A128" s="15"/>
+      <c r="B128" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C128" s="21"/>
+      <c r="D128" s="21"/>
+      <c r="E128" s="21"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" s="16"/>
-      <c r="B129" s="18"/>
+      <c r="A129" s="15"/>
+      <c r="B129" s="17"/>
       <c r="C129" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="15"/>
+      <c r="B130" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E130" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D129" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E129" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" s="16"/>
-      <c r="B130" s="19" t="s">
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B131" s="18" t="s">
         <v>28</v>
-      </c>
-      <c r="C130" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D130" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E130" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B131" s="19" t="s">
-        <v>33</v>
       </c>
       <c r="C131" s="10"/>
       <c r="D131" s="10"/>
       <c r="E131" s="10"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B132" s="19" t="s">
-        <v>34</v>
+      <c r="B132" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D132" s="10"/>
       <c r="E132" s="10"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B133" s="19" t="s">
-        <v>35</v>
+      <c r="B133" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D133" s="10"/>
       <c r="E133" s="10"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B134" s="19" t="s">
-        <v>38</v>
+      <c r="B134" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D134" s="10"/>
       <c r="E134" s="10"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B135" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C135" s="20"/>
+      <c r="B135" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C135" s="19"/>
       <c r="D135" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B136" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C136" s="20"/>
+      <c r="B136" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C136" s="19"/>
       <c r="D136" s="10"/>
       <c r="E136" s="10"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B137" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C137" s="22"/>
-      <c r="D137" s="22"/>
+      <c r="B137" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C137" s="21"/>
+      <c r="D137" s="21"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B138" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B139" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D139" s="10"/>
-      <c r="E139" s="21"/>
+      <c r="E139" s="20"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B140" s="19" t="s">
-        <v>47</v>
+      <c r="B140" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="C140" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B141" s="19" t="s">
-        <v>48</v>
+      <c r="B141" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="C141" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B143" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C143" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D143" s="16"/>
-      <c r="E143" s="16" t="s">
-        <v>61</v>
+      <c r="B143" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C143" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" s="15"/>
+      <c r="E143" s="15" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B144" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C144" s="17">
+      <c r="B144" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C144" s="16">
         <v>3</v>
       </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B145" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C145" s="22"/>
-      <c r="D145" s="22"/>
-      <c r="E145" s="22"/>
+      <c r="B145" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C145" s="21"/>
+      <c r="D145" s="21"/>
+      <c r="E145" s="21"/>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B146" s="18"/>
+      <c r="B146" s="17"/>
       <c r="C146" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D146" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B147" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D147" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E147" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D146" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E146" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B147" s="19" t="s">
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B148" s="18" t="s">
         <v>28</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D147" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E147" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B148" s="19" t="s">
-        <v>33</v>
       </c>
       <c r="C148" s="10"/>
       <c r="D148" s="10"/>
       <c r="E148" s="10"/>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B149" s="19" t="s">
-        <v>34</v>
+      <c r="B149" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D149" s="10"/>
       <c r="E149" s="10"/>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B150" s="19" t="s">
-        <v>35</v>
+      <c r="B150" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D150" s="10"/>
       <c r="E150" s="10"/>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B151" s="19" t="s">
-        <v>38</v>
+      <c r="B151" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D151" s="10"/>
       <c r="E151" s="10"/>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B152" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C152" s="20"/>
+      <c r="B152" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C152" s="19"/>
       <c r="D152" s="10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E152" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B153" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C153" s="20"/>
+      <c r="B153" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C153" s="19"/>
       <c r="D153" s="10"/>
       <c r="E153" s="10"/>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B154" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C154" s="22"/>
-      <c r="D154" s="22"/>
+      <c r="B154" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C154" s="21"/>
+      <c r="D154" s="21"/>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B155" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B156" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D156" s="10"/>
-      <c r="E156" s="21"/>
+      <c r="E156" s="20"/>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B157" s="19" t="s">
-        <v>47</v>
+      <c r="B157" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="C157" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B158" s="19" t="s">
-        <v>48</v>
+      <c r="B158" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="C158" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B160" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C160" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D160" s="16"/>
-      <c r="E160" s="16" t="s">
-        <v>72</v>
+      <c r="B160" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C160" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160" s="15"/>
+      <c r="E160" s="15" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B161" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="C161" s="17" t="s">
-        <v>70</v>
+      <c r="B161" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C161" s="16" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B162" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C162" s="22"/>
-      <c r="D162" s="22"/>
-      <c r="E162" s="22"/>
+      <c r="B162" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C162" s="21"/>
+      <c r="D162" s="21"/>
+      <c r="E162" s="21"/>
     </row>
     <row r="163" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B163" s="18"/>
+      <c r="B163" s="17"/>
       <c r="C163" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E163" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B164" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D164" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E164" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D163" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E163" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B164" s="19" t="s">
+    </row>
+    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B165" s="18" t="s">
         <v>28</v>
-      </c>
-      <c r="C164" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D164" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="E164" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B165" s="19" t="s">
-        <v>33</v>
       </c>
       <c r="C165" s="10"/>
       <c r="D165" s="10"/>
       <c r="E165" s="10"/>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B166" s="19" t="s">
-        <v>34</v>
+      <c r="B166" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D166" s="10"/>
       <c r="E166" s="10"/>
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B167" s="19" t="s">
-        <v>35</v>
+      <c r="B167" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D167" s="10"/>
       <c r="E167" s="10"/>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B168" s="19" t="s">
-        <v>38</v>
+      <c r="B168" s="18" t="s">
+        <v>33</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D168" s="10"/>
       <c r="E168" s="10"/>
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B169" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C169" s="20"/>
+      <c r="B169" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C169" s="19"/>
       <c r="D169" s="10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E169" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B170" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C170" s="20"/>
+      <c r="B170" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C170" s="19"/>
       <c r="D170" s="10"/>
       <c r="E170" s="10"/>
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B171" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C171" s="22"/>
-      <c r="D171" s="22"/>
+      <c r="B171" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C171" s="21"/>
+      <c r="D171" s="21"/>
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B172" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B173" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D173" s="10"/>
-      <c r="E173" s="21"/>
+      <c r="E173" s="20"/>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B174" s="19" t="s">
-        <v>47</v>
+      <c r="B174" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="C174" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="175" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B175" s="19" t="s">
-        <v>48</v>
+      <c r="B175" s="18" t="s">
+        <v>43</v>
       </c>
       <c r="C175" s="10">
         <v>1</v>
@@ -2548,7 +4693,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A88"/>
   <sheetViews>
@@ -2568,19 +4713,19 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f>"  &lt;vaccine vaccineName="&amp;CHAR(34)&amp;Schedules!B4&amp;CHAR(34)&amp;" vaccineIds="&amp;CHAR(34)&amp;Schedules!C4&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">  &lt;vaccine vaccineName="IPV" vaccineIds="147, 114, 115, 153, 116, 142, 227"/&gt;</v>
+        <v xml:space="preserve">  &lt;vaccine vaccineName="IPV" vaccineIds="110, 120, 170, 10, 89, 130, 132"/&gt;</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f>"  &lt;vaccine vaccineName="&amp;CHAR(34)&amp;Schedules!B5&amp;CHAR(34)&amp;" vaccineIds="&amp;CHAR(34)&amp;Schedules!C5&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">  &lt;vaccine vaccineName="OPV" vaccineIds="148"/&gt;</v>
+        <v xml:space="preserve">  &lt;vaccine vaccineName="OPV" vaccineIds="02"/&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
         <f>"  &lt;vaccine vaccineName="&amp;CHAR(34)&amp;Schedules!B6&amp;CHAR(34)&amp;" vaccineIds="&amp;CHAR(34)&amp;Schedules!C6&amp;CHAR(34)&amp;"/&gt;"</f>
-        <v xml:space="preserve">  &lt;vaccine vaccineName="Any" vaccineIds="147, 114, 115, 153, 148, 116, 142, 227"/&gt;</v>
+        <v xml:space="preserve">  &lt;vaccine vaccineName="Any" vaccineIds="110, 120, 170, 10, 02, 89, 130, 132"/&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
